--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36927.67840751304</v>
+        <v>-39366.15150725948</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>96.67804260767326</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>264.1005923899909</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>284.9431039072194</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76.52772768435341</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>27.32239466140646</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>77.49903169749535</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>245.8056267012311</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>95.28662560877972</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>149.2419515106227</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>39.34540819183048</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>323.4722650703475</v>
+        <v>224.2838478114431</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>91.28637225032485</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>90.19750939009569</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.8704329402502</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819362</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>142.8873577254035</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.533419552836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>93.40444476188456</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>40.15381658332728</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.23631477519572</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>162.8435308896557</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>114.2173032139413</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>114.5120075176655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>89.43437620021341</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>217.6587144826193</v>
+        <v>242.4603833710106</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6229551553988</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="41">
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968308</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C2" t="n">
-        <v>1140.384283475709</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="D2" t="n">
-        <v>782.1185848689584</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="E2" t="n">
-        <v>396.3303322707141</v>
+        <v>969.871206411495</v>
       </c>
       <c r="F2" t="n">
-        <v>396.3303322707141</v>
+        <v>558.8853016218874</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>143.8128514668838</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006842</v>
+        <v>1072.569853459643</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727774</v>
+        <v>903.6336705317362</v>
       </c>
       <c r="D4" t="n">
-        <v>242.0235884604416</v>
+        <v>753.5170311194005</v>
       </c>
       <c r="E4" t="n">
-        <v>94.11049487804851</v>
+        <v>605.6039375370074</v>
       </c>
       <c r="F4" t="n">
-        <v>94.11049487804851</v>
+        <v>458.713990039097</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>291.0111534138159</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>144.7939666316737</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672471</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744541</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.724875630924</v>
+        <v>1072.569853459643</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.60683175406</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>736.8185791558158</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>325.8326743662082</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>314.8006282516088</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3229.356704832626</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3023.378957216848</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3023.378957216848</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2692.316069873278</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2339.547414603163</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>1966.081656342083</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1273.262145272047</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2244.121949002409</v>
+        <v>1774.969111598458</v>
       </c>
       <c r="C8" t="n">
-        <v>1875.159432061997</v>
+        <v>1774.969111598458</v>
       </c>
       <c r="D8" t="n">
-        <v>1516.893733455247</v>
+        <v>1416.703412991707</v>
       </c>
       <c r="E8" t="n">
         <v>1190.154071768027</v>
@@ -4796,58 +4796,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066531</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066531</v>
+        <v>2161.568951662579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.8444854681028</v>
+        <v>720.7556739678752</v>
       </c>
       <c r="C10" t="n">
-        <v>600.8444854681028</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>450.727846055767</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>450.727846055767</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>303.8378985578566</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>303.8378985578566</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>157.6207117757144</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983425</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.4929502983425</v>
+        <v>902.4041387981149</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6425904082687</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2322.851535155765</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.250070178707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.174843522904</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.490355317017</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.073185280057</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.083634382039</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.2910552385093</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.644273983533</v>
+        <v>696.7084350851683</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>527.7722521572614</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>527.7722521572614</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>379.8591585748683</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813771</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876706</v>
+        <v>768.5380889459573</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597637</v>
+        <v>599.6019060180504</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>449.4852666057146</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>301.5721730233215</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359458</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614405</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179104</v>
+        <v>950.186553776197</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179073</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900004</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>443.4949469776647</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>443.4949469776647</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>296.6049994797543</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>129.4089001946342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614374</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179073</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>954.2476448606607</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>785.3114619327538</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>635.194822520418</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>487.2817289380249</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>340.3917814401145</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1095.661204897168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154069</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6920,43 +6920,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1757.603793154328</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V37" t="n">
-        <v>1502.919304948441</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W37" t="n">
-        <v>1213.50213491148</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X37" t="n">
-        <v>985.5125840134625</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.6145409888042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908938</v>
@@ -7324,58 +7324,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2232.8234857363</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2013.222020759241</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>952.055584962574</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.2630058190439</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.9786217462341</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>218.080036702967</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012356</v>
       </c>
       <c r="S13" t="n">
-        <v>58.15585306139441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.533690297527727</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.05123379925877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.21102825632779</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>105.267231439604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>105.0583980710281</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.680607402613134</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>53.0295178846865</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>77.81244489841443</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.52575990662484</v>
+        <v>43.72409101823359</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.40333084624581</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017513.062945906</v>
+        <v>1017513.062945907</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1099407.013021705</v>
+        <v>1099407.013021706</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1099407.013021705</v>
+        <v>1099407.013021706</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794692</v>
+        <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
@@ -26323,37 +26323,37 @@
         <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760026</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="M2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="N2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="L2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.23934546728</v>
+        <v>47189.23934546724</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26442,16 +26442,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1185274.159854984</v>
+        <v>-1185460.553243523</v>
       </c>
       <c r="C6" t="n">
         <v>130738.6443261876</v>
@@ -26528,40 +26528,40 @@
         <v>130738.6443261875</v>
       </c>
       <c r="E6" t="n">
-        <v>-114233.440042041</v>
+        <v>-114268.1779674766</v>
       </c>
       <c r="F6" t="n">
-        <v>211179.0217653139</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="G6" t="n">
-        <v>211179.0217653143</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="H6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="I6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398784</v>
       </c>
       <c r="J6" t="n">
-        <v>-6352.180631963245</v>
+        <v>-6386.918557398851</v>
       </c>
       <c r="K6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="L6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="M6" t="n">
-        <v>126123.9938298023</v>
+        <v>126089.2559043669</v>
       </c>
       <c r="N6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="O6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398785</v>
       </c>
       <c r="P6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398784</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26969,14 +26969,14 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>268.5948491633343</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>117.8297776822709</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>138.7034135976218</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>18.85338871234273</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>48.80213768608937</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>13.90113617939612</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>58.45810500191425</v>
+        <v>157.6465222608187</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>75.96044884830299</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>6.1549110197424</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043726</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
